--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -306,13 +306,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -320,7 +320,7 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -346,7 +346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -372,7 +372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -398,7 +398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>23</v>
       </c>
@@ -424,7 +424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>34</v>
       </c>
@@ -450,7 +450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45</v>
       </c>
@@ -473,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>23</v>
       </c>
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>56</v>
       </c>
@@ -525,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -554,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43</v>
       </c>
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45</v>
       </c>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -629,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -658,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>56</v>
       </c>
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>56</v>
       </c>
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43</v>
       </c>
@@ -736,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>38</v>
       </c>
@@ -763,13 +763,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H17">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="POSITIF"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
